--- a/meta/en/2-2-2.xlsx
+++ b/meta/en/2-2-2.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -107,18 +106,6 @@
     <t>National Statistical Committee of the Kyrgyz republic (Household Statistics Division) under the UNICEF MICS global programme</t>
   </si>
   <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Prevalence of overweight (weight for height &gt;+2 or &lt;-2 SD standard deviation from the median of the World Health Organization (WHO) Child Growth Standards) among children under 5 years of age.</t>
   </si>
   <si>
@@ -157,6 +144,18 @@
 http://datatopics.worldbank.org/child-malnutrition;
 United Nations Children’s Fund, World Health Organization, The World Bank (2012). UNICEFWHO-World
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -565,7 +564,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -670,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -714,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
